--- a/Code/Results/Cases/Case_1_234/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_234/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026006003192291</v>
+        <v>1.06138285887833</v>
       </c>
       <c r="D2">
-        <v>1.065126847537749</v>
+        <v>1.074568748949277</v>
       </c>
       <c r="E2">
-        <v>1.026469100309352</v>
+        <v>1.056788327412819</v>
       </c>
       <c r="F2">
-        <v>1.064477263427201</v>
+        <v>1.081601295330561</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069247154794416</v>
+        <v>1.059842832034928</v>
       </c>
       <c r="J2">
-        <v>1.047435758421369</v>
+        <v>1.066358825236371</v>
       </c>
       <c r="K2">
-        <v>1.075747727749826</v>
+        <v>1.077257616042017</v>
       </c>
       <c r="L2">
-        <v>1.037571594977033</v>
+        <v>1.059525077788409</v>
       </c>
       <c r="M2">
-        <v>1.075105878039291</v>
+        <v>1.084271692871229</v>
       </c>
       <c r="N2">
-        <v>1.048923237340888</v>
+        <v>1.067873177081273</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033802938431141</v>
+        <v>1.062874519181515</v>
       </c>
       <c r="D3">
-        <v>1.070459212506031</v>
+        <v>1.075585571559972</v>
       </c>
       <c r="E3">
-        <v>1.033251720158696</v>
+        <v>1.058100983930602</v>
       </c>
       <c r="F3">
-        <v>1.070631282750535</v>
+        <v>1.082811667586894</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072499579797932</v>
+        <v>1.06036644463045</v>
       </c>
       <c r="J3">
-        <v>1.053412677994638</v>
+        <v>1.067501920918978</v>
       </c>
       <c r="K3">
-        <v>1.080263458914867</v>
+        <v>1.078091098302245</v>
       </c>
       <c r="L3">
-        <v>1.043476107869514</v>
+        <v>1.060650173606004</v>
       </c>
       <c r="M3">
-        <v>1.080433669394421</v>
+        <v>1.085299591951552</v>
       </c>
       <c r="N3">
-        <v>1.054908644825513</v>
+        <v>1.069017896090865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038688175030641</v>
+        <v>1.063837731300729</v>
       </c>
       <c r="D4">
-        <v>1.073809018531703</v>
+        <v>1.076242451908338</v>
       </c>
       <c r="E4">
-        <v>1.037500998821252</v>
+        <v>1.058948094291611</v>
       </c>
       <c r="F4">
-        <v>1.074498778601869</v>
+        <v>1.083593901699216</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.074527418081985</v>
+        <v>1.060703197400707</v>
       </c>
       <c r="J4">
-        <v>1.057151463253312</v>
+        <v>1.068239163609764</v>
       </c>
       <c r="K4">
-        <v>1.083091341550939</v>
+        <v>1.078628733634291</v>
       </c>
       <c r="L4">
-        <v>1.047166944913446</v>
+        <v>1.061375378027037</v>
       </c>
       <c r="M4">
-        <v>1.083774119393236</v>
+        <v>1.085963179335528</v>
       </c>
       <c r="N4">
-        <v>1.058652739588099</v>
+        <v>1.069756185750835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.040705870907871</v>
+        <v>1.064242197449115</v>
       </c>
       <c r="D5">
-        <v>1.075194475296656</v>
+        <v>1.076518351535174</v>
       </c>
       <c r="E5">
-        <v>1.039255859555699</v>
+        <v>1.059303684464307</v>
       </c>
       <c r="F5">
-        <v>1.076098746044085</v>
+        <v>1.083922528402925</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075362476487293</v>
+        <v>1.060844278183804</v>
       </c>
       <c r="J5">
-        <v>1.058694130942481</v>
+        <v>1.068548528549638</v>
       </c>
       <c r="K5">
-        <v>1.084258823745352</v>
+        <v>1.078854356195668</v>
       </c>
       <c r="L5">
-        <v>1.048689189825126</v>
+        <v>1.061679588731147</v>
       </c>
       <c r="M5">
-        <v>1.085154196286844</v>
+        <v>1.086241789202356</v>
       </c>
       <c r="N5">
-        <v>1.060197598042333</v>
+        <v>1.070065990024408</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.041042597498295</v>
+        <v>1.064310081887757</v>
       </c>
       <c r="D6">
-        <v>1.075425797691255</v>
+        <v>1.076564661576033</v>
       </c>
       <c r="E6">
-        <v>1.039548710405414</v>
+        <v>1.059363358462173</v>
       </c>
       <c r="F6">
-        <v>1.076365908441979</v>
+        <v>1.083977693244128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.075501688687186</v>
+        <v>1.060867937615897</v>
       </c>
       <c r="J6">
-        <v>1.058951490539259</v>
+        <v>1.068600438941396</v>
       </c>
       <c r="K6">
-        <v>1.084453628696967</v>
+        <v>1.078892215905949</v>
       </c>
       <c r="L6">
-        <v>1.048943104713397</v>
+        <v>1.061730628238707</v>
       </c>
       <c r="M6">
-        <v>1.085384532855836</v>
+        <v>1.086288547911638</v>
       </c>
       <c r="N6">
-        <v>1.060455323119259</v>
+        <v>1.070117974134877</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038715274469428</v>
+        <v>1.063843137626342</v>
       </c>
       <c r="D7">
-        <v>1.073827619055265</v>
+        <v>1.07624613948166</v>
       </c>
       <c r="E7">
-        <v>1.037524568921998</v>
+        <v>1.058952847797893</v>
       </c>
       <c r="F7">
-        <v>1.074520257434911</v>
+        <v>1.083598293701644</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07453864356547</v>
+        <v>1.060705084451038</v>
       </c>
       <c r="J7">
-        <v>1.057172188742885</v>
+        <v>1.068243299598128</v>
       </c>
       <c r="K7">
-        <v>1.08310702396398</v>
+        <v>1.078631749978562</v>
       </c>
       <c r="L7">
-        <v>1.047187398558901</v>
+        <v>1.061379445510669</v>
       </c>
       <c r="M7">
-        <v>1.08379265360913</v>
+        <v>1.085966903552114</v>
       </c>
       <c r="N7">
-        <v>1.058673494510245</v>
+        <v>1.069760327612776</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028675525658041</v>
+        <v>1.061887390092151</v>
       </c>
       <c r="D8">
-        <v>1.066950579317896</v>
+        <v>1.074912613108753</v>
       </c>
       <c r="E8">
-        <v>1.028791386830335</v>
+        <v>1.057232419587865</v>
       </c>
       <c r="F8">
-        <v>1.066581709330786</v>
+        <v>1.082010547464824</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070362785942935</v>
+        <v>1.060020217620864</v>
       </c>
       <c r="J8">
-        <v>1.049483395963817</v>
+        <v>1.066745644182135</v>
       </c>
       <c r="K8">
-        <v>1.077294059346654</v>
+        <v>1.077539646063661</v>
       </c>
       <c r="L8">
-        <v>1.039594987392987</v>
+        <v>1.059905894764549</v>
       </c>
       <c r="M8">
-        <v>1.076929442415937</v>
+        <v>1.084619396123354</v>
       </c>
       <c r="N8">
-        <v>1.050973782763514</v>
+        <v>1.068260545354309</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009647930158254</v>
+        <v>1.058425470108931</v>
       </c>
       <c r="D9">
-        <v>1.053998018460431</v>
+        <v>1.072554391227226</v>
       </c>
       <c r="E9">
-        <v>1.012240173695603</v>
+        <v>1.054183111412894</v>
       </c>
       <c r="F9">
-        <v>1.051640598197755</v>
+        <v>1.079205186842102</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062371064105725</v>
+        <v>1.058797486029985</v>
       </c>
       <c r="J9">
-        <v>1.034864535571371</v>
+        <v>1.064087775430702</v>
       </c>
       <c r="K9">
-        <v>1.066271813712553</v>
+        <v>1.075602160263455</v>
       </c>
       <c r="L9">
-        <v>1.025137735759556</v>
+        <v>1.057287492543463</v>
       </c>
       <c r="M9">
-        <v>1.063947937970661</v>
+        <v>1.082232978928671</v>
       </c>
       <c r="N9">
-        <v>1.036334161912503</v>
+        <v>1.065598902124387</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9958866821071013</v>
+        <v>1.056106461456617</v>
       </c>
       <c r="D10">
-        <v>1.044700827028367</v>
+        <v>1.07097637145905</v>
       </c>
       <c r="E10">
-        <v>1.00027590052578</v>
+        <v>1.05213786852602</v>
       </c>
       <c r="F10">
-        <v>1.040920871401486</v>
+        <v>1.077329568389204</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056544575220768</v>
+        <v>1.057971445480878</v>
       </c>
       <c r="J10">
-        <v>1.024264453930034</v>
+        <v>1.062302795502224</v>
       </c>
       <c r="K10">
-        <v>1.05830732061708</v>
+        <v>1.074301488019853</v>
       </c>
       <c r="L10">
-        <v>1.014640175289552</v>
+        <v>1.055526782228684</v>
       </c>
       <c r="M10">
-        <v>1.054588607159046</v>
+        <v>1.080633721543376</v>
       </c>
       <c r="N10">
-        <v>1.025719026939389</v>
+        <v>1.063811387319671</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9896252438066304</v>
+        <v>1.055099559513634</v>
       </c>
       <c r="D11">
-        <v>1.040491221810697</v>
+        <v>1.070291624697776</v>
       </c>
       <c r="E11">
-        <v>0.9948350830796472</v>
+        <v>1.051249215338701</v>
       </c>
       <c r="F11">
-        <v>1.036067679562351</v>
+        <v>1.076516061067768</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053884023479084</v>
+        <v>1.057611135964775</v>
       </c>
       <c r="J11">
-        <v>1.019436085871944</v>
+        <v>1.061526685571158</v>
       </c>
       <c r="K11">
-        <v>1.054687903507467</v>
+        <v>1.073736091338025</v>
       </c>
       <c r="L11">
-        <v>1.009855063931804</v>
+        <v>1.054760693070262</v>
       </c>
       <c r="M11">
-        <v>1.050340025012522</v>
+        <v>1.07993918916287</v>
       </c>
       <c r="N11">
-        <v>1.020883802044835</v>
+        <v>1.063034175223482</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9872492319413683</v>
+        <v>1.054725126676354</v>
       </c>
       <c r="D12">
-        <v>1.038897299098994</v>
+        <v>1.070037056091662</v>
       </c>
       <c r="E12">
-        <v>0.9927710739646424</v>
+        <v>1.05091866257615</v>
       </c>
       <c r="F12">
-        <v>1.034230086162733</v>
+        <v>1.07621367910519</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052873165837085</v>
+        <v>1.05747690230624</v>
       </c>
       <c r="J12">
-        <v>1.017603205070353</v>
+        <v>1.061237914513326</v>
       </c>
       <c r="K12">
-        <v>1.053315394522667</v>
+        <v>1.073525743102794</v>
       </c>
       <c r="L12">
-        <v>1.008038091734864</v>
+        <v>1.054475570487988</v>
       </c>
       <c r="M12">
-        <v>1.048729616566128</v>
+        <v>1.079680896253503</v>
       </c>
       <c r="N12">
-        <v>1.019048318342272</v>
+        <v>1.062744994077625</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9877612517824599</v>
+        <v>1.054805463176939</v>
       </c>
       <c r="D13">
-        <v>1.039240618434028</v>
+        <v>1.070091672097645</v>
       </c>
       <c r="E13">
-        <v>0.9932158286671788</v>
+        <v>1.05098958856599</v>
       </c>
       <c r="F13">
-        <v>1.03462589067418</v>
+        <v>1.076278550622401</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053091055430994</v>
+        <v>1.057505713982635</v>
       </c>
       <c r="J13">
-        <v>1.017998210851946</v>
+        <v>1.061299879159064</v>
       </c>
       <c r="K13">
-        <v>1.053611116840511</v>
+        <v>1.073570878735929</v>
       </c>
       <c r="L13">
-        <v>1.008429692031838</v>
+        <v>1.054536755863384</v>
       </c>
       <c r="M13">
-        <v>1.049076566479977</v>
+        <v>1.079736315199371</v>
       </c>
       <c r="N13">
-        <v>1.019443885077383</v>
+        <v>1.062807046720267</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9894298966851854</v>
+        <v>1.055068617502212</v>
       </c>
       <c r="D14">
-        <v>1.04036010227696</v>
+        <v>1.070270586557677</v>
       </c>
       <c r="E14">
-        <v>0.9946653744991402</v>
+        <v>1.05122190133284</v>
       </c>
       <c r="F14">
-        <v>1.035916515182738</v>
+        <v>1.076491070381212</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05380093906573</v>
+        <v>1.057600048323119</v>
       </c>
       <c r="J14">
-        <v>1.019285405902538</v>
+        <v>1.061502825694332</v>
       </c>
       <c r="K14">
-        <v>1.054575040019175</v>
+        <v>1.073718710742837</v>
       </c>
       <c r="L14">
-        <v>1.009705702133922</v>
+        <v>1.054737136282752</v>
       </c>
       <c r="M14">
-        <v>1.050207584961909</v>
+        <v>1.079917845001518</v>
       </c>
       <c r="N14">
-        <v>1.02073290809259</v>
+        <v>1.063010281462894</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.990451193221956</v>
+        <v>1.05523069898242</v>
       </c>
       <c r="D15">
-        <v>1.041045753693277</v>
+        <v>1.070380791946054</v>
       </c>
       <c r="E15">
-        <v>0.9955526553739601</v>
+        <v>1.051364974682636</v>
       </c>
       <c r="F15">
-        <v>1.036706985583357</v>
+        <v>1.076621982928201</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05423526327689</v>
+        <v>1.057658117884198</v>
       </c>
       <c r="J15">
-        <v>1.020073151043679</v>
+        <v>1.061627802671866</v>
       </c>
       <c r="K15">
-        <v>1.055165142851057</v>
+        <v>1.07380975042588</v>
       </c>
       <c r="L15">
-        <v>1.010486535214316</v>
+        <v>1.054860522417061</v>
       </c>
       <c r="M15">
-        <v>1.050900070822699</v>
+        <v>1.080029649903106</v>
       </c>
       <c r="N15">
-        <v>1.021521771922187</v>
+        <v>1.063135435922071</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9962954647613559</v>
+        <v>1.056173227257749</v>
       </c>
       <c r="D16">
-        <v>1.044976111786642</v>
+        <v>1.07102178481201</v>
       </c>
       <c r="E16">
-        <v>1.000631182545512</v>
+        <v>1.052196780474085</v>
       </c>
       <c r="F16">
-        <v>1.041238248819376</v>
+        <v>1.077383529193789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056718088595766</v>
+        <v>1.057995302337199</v>
       </c>
       <c r="J16">
-        <v>1.024579578312887</v>
+        <v>1.062354235202074</v>
       </c>
       <c r="K16">
-        <v>1.058543731156431</v>
+        <v>1.074338964850503</v>
       </c>
       <c r="L16">
-        <v>1.014952405875012</v>
+        <v>1.055577546568701</v>
       </c>
       <c r="M16">
-        <v>1.054866208469598</v>
+        <v>1.080679771836157</v>
       </c>
       <c r="N16">
-        <v>1.026034598835012</v>
+        <v>1.063862900069795</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9998772266535527</v>
+        <v>1.056763705069859</v>
       </c>
       <c r="D17">
-        <v>1.04739052818117</v>
+        <v>1.071423470139454</v>
       </c>
       <c r="E17">
-        <v>1.003744523307605</v>
+        <v>1.052717727324809</v>
       </c>
       <c r="F17">
-        <v>1.04402189487783</v>
+        <v>1.077860860834965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058237367920138</v>
+        <v>1.058206102867714</v>
       </c>
       <c r="J17">
-        <v>1.027340123677818</v>
+        <v>1.062809044121921</v>
       </c>
       <c r="K17">
-        <v>1.060615696841779</v>
+        <v>1.074670335600207</v>
       </c>
       <c r="L17">
-        <v>1.017687214474475</v>
+        <v>1.056026322928458</v>
       </c>
       <c r="M17">
-        <v>1.057299708921973</v>
+        <v>1.081087025095611</v>
       </c>
       <c r="N17">
-        <v>1.028799064491</v>
+        <v>1.064318354870476</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001937554080663</v>
+        <v>1.057107855603511</v>
       </c>
       <c r="D18">
-        <v>1.048781274921179</v>
+        <v>1.071657626449996</v>
       </c>
       <c r="E18">
-        <v>1.005535670909136</v>
+        <v>1.053021293203536</v>
       </c>
       <c r="F18">
-        <v>1.04562537680603</v>
+        <v>1.078139150249588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059110401132743</v>
+        <v>1.058328805893823</v>
       </c>
       <c r="J18">
-        <v>1.028927562267105</v>
+        <v>1.063074018098843</v>
       </c>
       <c r="K18">
-        <v>1.06180794759395</v>
+        <v>1.07486340688932</v>
       </c>
       <c r="L18">
-        <v>1.019259530728871</v>
+        <v>1.056287731141259</v>
       </c>
       <c r="M18">
-        <v>1.05870043713619</v>
+        <v>1.081324372261266</v>
       </c>
       <c r="N18">
-        <v>1.030388757425165</v>
+        <v>1.064583705140838</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002635311819402</v>
+        <v>1.057225157380613</v>
       </c>
       <c r="D19">
-        <v>1.049252583323478</v>
+        <v>1.071737444106474</v>
       </c>
       <c r="E19">
-        <v>1.006142308627248</v>
+        <v>1.053124751801058</v>
       </c>
       <c r="F19">
-        <v>1.046168789329425</v>
+        <v>1.078234017868217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059405908988185</v>
+        <v>1.058370601594096</v>
       </c>
       <c r="J19">
-        <v>1.029465081249019</v>
+        <v>1.063164315320104</v>
       </c>
       <c r="K19">
-        <v>1.062211779720703</v>
+        <v>1.074929203447747</v>
       </c>
       <c r="L19">
-        <v>1.019791874331819</v>
+        <v>1.056376804555131</v>
       </c>
       <c r="M19">
-        <v>1.059174959333228</v>
+        <v>1.081405268305769</v>
       </c>
       <c r="N19">
-        <v>1.030927039745688</v>
+        <v>1.06467413059451</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9994959541429841</v>
+        <v>1.056700379894679</v>
       </c>
       <c r="D20">
-        <v>1.047133316637671</v>
+        <v>1.071380387614987</v>
       </c>
       <c r="E20">
-        <v>1.003413084455158</v>
+        <v>1.052661865093865</v>
       </c>
       <c r="F20">
-        <v>1.043725343689096</v>
+        <v>1.077809661162908</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058075735509634</v>
+        <v>1.058183512198905</v>
       </c>
       <c r="J20">
-        <v>1.027046319749348</v>
+        <v>1.062760279384986</v>
       </c>
       <c r="K20">
-        <v>1.060395096250456</v>
+        <v>1.074634804581861</v>
       </c>
       <c r="L20">
-        <v>1.017396183213299</v>
+        <v>1.055978210299728</v>
       </c>
       <c r="M20">
-        <v>1.057040570090949</v>
+        <v>1.081043351069023</v>
       </c>
       <c r="N20">
-        <v>1.028504843327251</v>
+        <v>1.064269520882021</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9889399507682777</v>
+        <v>1.054991136919473</v>
       </c>
       <c r="D21">
-        <v>1.040031301571416</v>
+        <v>1.07021790690756</v>
       </c>
       <c r="E21">
-        <v>0.9942397423233315</v>
+        <v>1.051153503990455</v>
       </c>
       <c r="F21">
-        <v>1.035537449252498</v>
+        <v>1.076428494430228</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053592537078362</v>
+        <v>1.057572280246426</v>
       </c>
       <c r="J21">
-        <v>1.018907478341994</v>
+        <v>1.061443076570806</v>
       </c>
       <c r="K21">
-        <v>1.05429198564235</v>
+        <v>1.073675187179316</v>
       </c>
       <c r="L21">
-        <v>1.009331072536858</v>
+        <v>1.054678144853294</v>
       </c>
       <c r="M21">
-        <v>1.049875444742502</v>
+        <v>1.079864397675981</v>
       </c>
       <c r="N21">
-        <v>1.020354443831561</v>
+        <v>1.062950447488759</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9820094340043425</v>
+        <v>1.053914005975993</v>
       </c>
       <c r="D22">
-        <v>1.03538913660892</v>
+        <v>1.069485715560506</v>
       </c>
       <c r="E22">
-        <v>0.9882206396518269</v>
+        <v>1.050202428621087</v>
       </c>
       <c r="F22">
-        <v>1.030185571887726</v>
+        <v>1.075558887169891</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050641786479461</v>
+        <v>1.057185666039645</v>
       </c>
       <c r="J22">
-        <v>1.013560075338955</v>
+        <v>1.06061206396934</v>
       </c>
       <c r="K22">
-        <v>1.050290682227467</v>
+        <v>1.073069898628159</v>
       </c>
       <c r="L22">
-        <v>1.004029116198053</v>
+        <v>1.053857480699328</v>
       </c>
       <c r="M22">
-        <v>1.045181861674526</v>
+        <v>1.079121331090725</v>
       </c>
       <c r="N22">
-        <v>1.014999446902902</v>
+        <v>1.062118254754081</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9857130345351426</v>
+        <v>1.054485250397692</v>
       </c>
       <c r="D23">
-        <v>1.037867791483647</v>
+        <v>1.069873988264085</v>
       </c>
       <c r="E23">
-        <v>0.9914367917640681</v>
+        <v>1.0507068715459</v>
       </c>
       <c r="F23">
-        <v>1.033043189299091</v>
+        <v>1.076019999412129</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052219266183519</v>
+        <v>1.057390837620217</v>
       </c>
       <c r="J23">
-        <v>1.016417992957988</v>
+        <v>1.061052870955914</v>
       </c>
       <c r="K23">
-        <v>1.052428308712223</v>
+        <v>1.073390958902527</v>
       </c>
       <c r="L23">
-        <v>1.006863023201279</v>
+        <v>1.054292842321882</v>
       </c>
       <c r="M23">
-        <v>1.047688960461568</v>
+        <v>1.079515418388637</v>
       </c>
       <c r="N23">
-        <v>1.017861423092761</v>
+        <v>1.062559687737137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9996683235937415</v>
+        <v>1.056728994635082</v>
       </c>
       <c r="D24">
-        <v>1.047249593474174</v>
+        <v>1.071399855186018</v>
       </c>
       <c r="E24">
-        <v>1.003562923788061</v>
+        <v>1.052687107738839</v>
       </c>
       <c r="F24">
-        <v>1.043859404511769</v>
+        <v>1.077832796492993</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058148810692</v>
+        <v>1.058193720732697</v>
       </c>
       <c r="J24">
-        <v>1.027179147108748</v>
+        <v>1.062782315023536</v>
       </c>
       <c r="K24">
-        <v>1.060494826327699</v>
+        <v>1.074650860173859</v>
       </c>
       <c r="L24">
-        <v>1.017527758066012</v>
+        <v>1.055999951424086</v>
       </c>
       <c r="M24">
-        <v>1.057157721324848</v>
+        <v>1.081063086089946</v>
       </c>
       <c r="N24">
-        <v>1.028637859316737</v>
+        <v>1.064291587813705</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014742329665787</v>
+        <v>1.059322368977686</v>
       </c>
       <c r="D25">
-        <v>1.057455123576714</v>
+        <v>1.073165065396333</v>
       </c>
       <c r="E25">
-        <v>1.016670992019011</v>
+        <v>1.054973576090396</v>
       </c>
       <c r="F25">
-        <v>1.05562744819328</v>
+        <v>1.079931365366812</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064519131559037</v>
+        <v>1.059115496179913</v>
       </c>
       <c r="J25">
-        <v>1.038783541336483</v>
+        <v>1.064777170316077</v>
       </c>
       <c r="K25">
-        <v>1.069222500569726</v>
+        <v>1.076104618395374</v>
       </c>
       <c r="L25">
-        <v>1.029015909365388</v>
+        <v>1.057967042849954</v>
       </c>
       <c r="M25">
-        <v>1.067419505017432</v>
+        <v>1.082851368933092</v>
       </c>
       <c r="N25">
-        <v>1.040258733115318</v>
+        <v>1.066289276029575</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_234/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_234/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.06138285887833</v>
+        <v>1.026006003192289</v>
       </c>
       <c r="D2">
-        <v>1.074568748949277</v>
+        <v>1.065126847537748</v>
       </c>
       <c r="E2">
-        <v>1.056788327412819</v>
+        <v>1.026469100309351</v>
       </c>
       <c r="F2">
-        <v>1.081601295330561</v>
+        <v>1.0644772634272</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059842832034928</v>
+        <v>1.069247154794416</v>
       </c>
       <c r="J2">
-        <v>1.066358825236371</v>
+        <v>1.047435758421368</v>
       </c>
       <c r="K2">
-        <v>1.077257616042017</v>
+        <v>1.075747727749826</v>
       </c>
       <c r="L2">
-        <v>1.059525077788409</v>
+        <v>1.037571594977032</v>
       </c>
       <c r="M2">
-        <v>1.084271692871229</v>
+        <v>1.07510587803929</v>
       </c>
       <c r="N2">
-        <v>1.067873177081273</v>
+        <v>1.048923237340887</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.062874519181515</v>
+        <v>1.033802938431139</v>
       </c>
       <c r="D3">
-        <v>1.075585571559972</v>
+        <v>1.070459212506029</v>
       </c>
       <c r="E3">
-        <v>1.058100983930602</v>
+        <v>1.033251720158694</v>
       </c>
       <c r="F3">
-        <v>1.082811667586894</v>
+        <v>1.070631282750534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06036644463045</v>
+        <v>1.072499579797932</v>
       </c>
       <c r="J3">
-        <v>1.067501920918978</v>
+        <v>1.053412677994636</v>
       </c>
       <c r="K3">
-        <v>1.078091098302245</v>
+        <v>1.080263458914865</v>
       </c>
       <c r="L3">
-        <v>1.060650173606004</v>
+        <v>1.043476107869513</v>
       </c>
       <c r="M3">
-        <v>1.085299591951552</v>
+        <v>1.08043366939442</v>
       </c>
       <c r="N3">
-        <v>1.069017896090865</v>
+        <v>1.054908644825512</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063837731300729</v>
+        <v>1.038688175030639</v>
       </c>
       <c r="D4">
-        <v>1.076242451908338</v>
+        <v>1.073809018531702</v>
       </c>
       <c r="E4">
-        <v>1.058948094291611</v>
+        <v>1.037500998821251</v>
       </c>
       <c r="F4">
-        <v>1.083593901699216</v>
+        <v>1.074498778601868</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060703197400707</v>
+        <v>1.074527418081984</v>
       </c>
       <c r="J4">
-        <v>1.068239163609764</v>
+        <v>1.057151463253311</v>
       </c>
       <c r="K4">
-        <v>1.078628733634291</v>
+        <v>1.083091341550938</v>
       </c>
       <c r="L4">
-        <v>1.061375378027037</v>
+        <v>1.047166944913445</v>
       </c>
       <c r="M4">
-        <v>1.085963179335528</v>
+        <v>1.083774119393235</v>
       </c>
       <c r="N4">
-        <v>1.069756185750835</v>
+        <v>1.058652739588098</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064242197449115</v>
+        <v>1.040705870907871</v>
       </c>
       <c r="D5">
-        <v>1.076518351535174</v>
+        <v>1.075194475296656</v>
       </c>
       <c r="E5">
-        <v>1.059303684464307</v>
+        <v>1.039255859555698</v>
       </c>
       <c r="F5">
-        <v>1.083922528402925</v>
+        <v>1.076098746044084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060844278183804</v>
+        <v>1.075362476487292</v>
       </c>
       <c r="J5">
-        <v>1.068548528549638</v>
+        <v>1.05869413094248</v>
       </c>
       <c r="K5">
-        <v>1.078854356195668</v>
+        <v>1.084258823745351</v>
       </c>
       <c r="L5">
-        <v>1.061679588731147</v>
+        <v>1.048689189825125</v>
       </c>
       <c r="M5">
-        <v>1.086241789202356</v>
+        <v>1.085154196286844</v>
       </c>
       <c r="N5">
-        <v>1.070065990024408</v>
+        <v>1.060197598042333</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064310081887757</v>
+        <v>1.041042597498295</v>
       </c>
       <c r="D6">
-        <v>1.076564661576033</v>
+        <v>1.075425797691256</v>
       </c>
       <c r="E6">
-        <v>1.059363358462173</v>
+        <v>1.039548710405414</v>
       </c>
       <c r="F6">
-        <v>1.083977693244128</v>
+        <v>1.076365908441979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060867937615897</v>
+        <v>1.075501688687187</v>
       </c>
       <c r="J6">
-        <v>1.068600438941396</v>
+        <v>1.05895149053926</v>
       </c>
       <c r="K6">
-        <v>1.078892215905949</v>
+        <v>1.084453628696968</v>
       </c>
       <c r="L6">
-        <v>1.061730628238707</v>
+        <v>1.048943104713398</v>
       </c>
       <c r="M6">
-        <v>1.086288547911638</v>
+        <v>1.085384532855836</v>
       </c>
       <c r="N6">
-        <v>1.070117974134877</v>
+        <v>1.060455323119259</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063843137626342</v>
+        <v>1.038715274469428</v>
       </c>
       <c r="D7">
-        <v>1.07624613948166</v>
+        <v>1.073827619055265</v>
       </c>
       <c r="E7">
-        <v>1.058952847797893</v>
+        <v>1.037524568921999</v>
       </c>
       <c r="F7">
-        <v>1.083598293701644</v>
+        <v>1.074520257434911</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060705084451038</v>
+        <v>1.07453864356547</v>
       </c>
       <c r="J7">
-        <v>1.068243299598128</v>
+        <v>1.057172188742885</v>
       </c>
       <c r="K7">
-        <v>1.078631749978562</v>
+        <v>1.08310702396398</v>
       </c>
       <c r="L7">
-        <v>1.061379445510669</v>
+        <v>1.047187398558902</v>
       </c>
       <c r="M7">
-        <v>1.085966903552114</v>
+        <v>1.08379265360913</v>
       </c>
       <c r="N7">
-        <v>1.069760327612776</v>
+        <v>1.058673494510245</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061887390092151</v>
+        <v>1.028675525658039</v>
       </c>
       <c r="D8">
-        <v>1.074912613108753</v>
+        <v>1.066950579317894</v>
       </c>
       <c r="E8">
-        <v>1.057232419587865</v>
+        <v>1.028791386830332</v>
       </c>
       <c r="F8">
-        <v>1.082010547464824</v>
+        <v>1.066581709330783</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060020217620864</v>
+        <v>1.070362785942933</v>
       </c>
       <c r="J8">
-        <v>1.066745644182135</v>
+        <v>1.049483395963815</v>
       </c>
       <c r="K8">
-        <v>1.077539646063661</v>
+        <v>1.077294059346652</v>
       </c>
       <c r="L8">
-        <v>1.059905894764549</v>
+        <v>1.039594987392985</v>
       </c>
       <c r="M8">
-        <v>1.084619396123354</v>
+        <v>1.076929442415935</v>
       </c>
       <c r="N8">
-        <v>1.068260545354309</v>
+        <v>1.050973782763512</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.058425470108931</v>
+        <v>1.009647930158253</v>
       </c>
       <c r="D9">
-        <v>1.072554391227226</v>
+        <v>1.053998018460431</v>
       </c>
       <c r="E9">
-        <v>1.054183111412894</v>
+        <v>1.012240173695602</v>
       </c>
       <c r="F9">
-        <v>1.079205186842102</v>
+        <v>1.051640598197755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058797486029985</v>
+        <v>1.062371064105725</v>
       </c>
       <c r="J9">
-        <v>1.064087775430702</v>
+        <v>1.03486453557137</v>
       </c>
       <c r="K9">
-        <v>1.075602160263455</v>
+        <v>1.066271813712554</v>
       </c>
       <c r="L9">
-        <v>1.057287492543463</v>
+        <v>1.025137735759555</v>
       </c>
       <c r="M9">
-        <v>1.082232978928671</v>
+        <v>1.063947937970661</v>
       </c>
       <c r="N9">
-        <v>1.065598902124387</v>
+        <v>1.036334161912502</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.056106461456617</v>
+        <v>0.9958866821071006</v>
       </c>
       <c r="D10">
-        <v>1.07097637145905</v>
+        <v>1.044700827028367</v>
       </c>
       <c r="E10">
-        <v>1.05213786852602</v>
+        <v>1.000275900525779</v>
       </c>
       <c r="F10">
-        <v>1.077329568389204</v>
+        <v>1.040920871401487</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057971445480878</v>
+        <v>1.056544575220769</v>
       </c>
       <c r="J10">
-        <v>1.062302795502224</v>
+        <v>1.024264453930033</v>
       </c>
       <c r="K10">
-        <v>1.074301488019853</v>
+        <v>1.05830732061708</v>
       </c>
       <c r="L10">
-        <v>1.055526782228684</v>
+        <v>1.014640175289552</v>
       </c>
       <c r="M10">
-        <v>1.080633721543376</v>
+        <v>1.054588607159046</v>
       </c>
       <c r="N10">
-        <v>1.063811387319671</v>
+        <v>1.025719026939389</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.055099559513634</v>
+        <v>0.9896252438066305</v>
       </c>
       <c r="D11">
-        <v>1.070291624697776</v>
+        <v>1.040491221810697</v>
       </c>
       <c r="E11">
-        <v>1.051249215338701</v>
+        <v>0.9948350830796471</v>
       </c>
       <c r="F11">
-        <v>1.076516061067768</v>
+        <v>1.036067679562351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057611135964775</v>
+        <v>1.053884023479084</v>
       </c>
       <c r="J11">
-        <v>1.061526685571158</v>
+        <v>1.019436085871943</v>
       </c>
       <c r="K11">
-        <v>1.073736091338025</v>
+        <v>1.054687903507467</v>
       </c>
       <c r="L11">
-        <v>1.054760693070262</v>
+        <v>1.009855063931803</v>
       </c>
       <c r="M11">
-        <v>1.07993918916287</v>
+        <v>1.050340025012522</v>
       </c>
       <c r="N11">
-        <v>1.063034175223482</v>
+        <v>1.020883802044835</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054725126676354</v>
+        <v>0.9872492319413667</v>
       </c>
       <c r="D12">
-        <v>1.070037056091662</v>
+        <v>1.038897299098993</v>
       </c>
       <c r="E12">
-        <v>1.05091866257615</v>
+        <v>0.9927710739646409</v>
       </c>
       <c r="F12">
-        <v>1.07621367910519</v>
+        <v>1.034230086162732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05747690230624</v>
+        <v>1.052873165837084</v>
       </c>
       <c r="J12">
-        <v>1.061237914513326</v>
+        <v>1.017603205070352</v>
       </c>
       <c r="K12">
-        <v>1.073525743102794</v>
+        <v>1.053315394522666</v>
       </c>
       <c r="L12">
-        <v>1.054475570487988</v>
+        <v>1.008038091734862</v>
       </c>
       <c r="M12">
-        <v>1.079680896253503</v>
+        <v>1.048729616566128</v>
       </c>
       <c r="N12">
-        <v>1.062744994077625</v>
+        <v>1.019048318342271</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054805463176939</v>
+        <v>0.987761251782457</v>
       </c>
       <c r="D13">
-        <v>1.070091672097645</v>
+        <v>1.039240618434026</v>
       </c>
       <c r="E13">
-        <v>1.05098958856599</v>
+        <v>0.9932158286671762</v>
       </c>
       <c r="F13">
-        <v>1.076278550622401</v>
+        <v>1.034625890674177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057505713982635</v>
+        <v>1.053091055430992</v>
       </c>
       <c r="J13">
-        <v>1.061299879159064</v>
+        <v>1.017998210851944</v>
       </c>
       <c r="K13">
-        <v>1.073570878735929</v>
+        <v>1.053611116840508</v>
       </c>
       <c r="L13">
-        <v>1.054536755863384</v>
+        <v>1.008429692031835</v>
       </c>
       <c r="M13">
-        <v>1.079736315199371</v>
+        <v>1.049076566479974</v>
       </c>
       <c r="N13">
-        <v>1.062807046720267</v>
+        <v>1.01944388507738</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.055068617502212</v>
+        <v>0.989429896685185</v>
       </c>
       <c r="D14">
-        <v>1.070270586557677</v>
+        <v>1.04036010227696</v>
       </c>
       <c r="E14">
-        <v>1.05122190133284</v>
+        <v>0.9946653744991394</v>
       </c>
       <c r="F14">
-        <v>1.076491070381212</v>
+        <v>1.035916515182737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057600048323119</v>
+        <v>1.05380093906573</v>
       </c>
       <c r="J14">
-        <v>1.061502825694332</v>
+        <v>1.019285405902538</v>
       </c>
       <c r="K14">
-        <v>1.073718710742837</v>
+        <v>1.054575040019174</v>
       </c>
       <c r="L14">
-        <v>1.054737136282752</v>
+        <v>1.009705702133922</v>
       </c>
       <c r="M14">
-        <v>1.079917845001518</v>
+        <v>1.050207584961908</v>
       </c>
       <c r="N14">
-        <v>1.063010281462894</v>
+        <v>1.02073290809259</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05523069898242</v>
+        <v>0.9904511932219531</v>
       </c>
       <c r="D15">
-        <v>1.070380791946054</v>
+        <v>1.041045753693274</v>
       </c>
       <c r="E15">
-        <v>1.051364974682636</v>
+        <v>0.9955526553739575</v>
       </c>
       <c r="F15">
-        <v>1.076621982928201</v>
+        <v>1.036706985583355</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057658117884198</v>
+        <v>1.054235263276888</v>
       </c>
       <c r="J15">
-        <v>1.061627802671866</v>
+        <v>1.020073151043676</v>
       </c>
       <c r="K15">
-        <v>1.07380975042588</v>
+        <v>1.055165142851055</v>
       </c>
       <c r="L15">
-        <v>1.054860522417061</v>
+        <v>1.010486535214314</v>
       </c>
       <c r="M15">
-        <v>1.080029649903106</v>
+        <v>1.050900070822697</v>
       </c>
       <c r="N15">
-        <v>1.063135435922071</v>
+        <v>1.021521771922184</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.056173227257749</v>
+        <v>0.9962954647613546</v>
       </c>
       <c r="D16">
-        <v>1.07102178481201</v>
+        <v>1.044976111786641</v>
       </c>
       <c r="E16">
-        <v>1.052196780474085</v>
+        <v>1.00063118254551</v>
       </c>
       <c r="F16">
-        <v>1.077383529193789</v>
+        <v>1.041238248819375</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057995302337199</v>
+        <v>1.056718088595766</v>
       </c>
       <c r="J16">
-        <v>1.062354235202074</v>
+        <v>1.024579578312886</v>
       </c>
       <c r="K16">
-        <v>1.074338964850503</v>
+        <v>1.058543731156431</v>
       </c>
       <c r="L16">
-        <v>1.055577546568701</v>
+        <v>1.01495240587501</v>
       </c>
       <c r="M16">
-        <v>1.080679771836157</v>
+        <v>1.054866208469598</v>
       </c>
       <c r="N16">
-        <v>1.063862900069795</v>
+        <v>1.026034598835011</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056763705069859</v>
+        <v>0.9998772266535505</v>
       </c>
       <c r="D17">
-        <v>1.071423470139454</v>
+        <v>1.047390528181168</v>
       </c>
       <c r="E17">
-        <v>1.052717727324809</v>
+        <v>1.003744523307603</v>
       </c>
       <c r="F17">
-        <v>1.077860860834965</v>
+        <v>1.044021894877828</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058206102867714</v>
+        <v>1.058237367920137</v>
       </c>
       <c r="J17">
-        <v>1.062809044121921</v>
+        <v>1.027340123677817</v>
       </c>
       <c r="K17">
-        <v>1.074670335600207</v>
+        <v>1.060615696841777</v>
       </c>
       <c r="L17">
-        <v>1.056026322928458</v>
+        <v>1.017687214474473</v>
       </c>
       <c r="M17">
-        <v>1.081087025095611</v>
+        <v>1.057299708921971</v>
       </c>
       <c r="N17">
-        <v>1.064318354870476</v>
+        <v>1.028799064490998</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.057107855603511</v>
+        <v>1.001937554080661</v>
       </c>
       <c r="D18">
-        <v>1.071657626449996</v>
+        <v>1.048781274921178</v>
       </c>
       <c r="E18">
-        <v>1.053021293203536</v>
+        <v>1.005535670909135</v>
       </c>
       <c r="F18">
-        <v>1.078139150249588</v>
+        <v>1.045625376806029</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058328805893823</v>
+        <v>1.059110401132742</v>
       </c>
       <c r="J18">
-        <v>1.063074018098843</v>
+        <v>1.028927562267104</v>
       </c>
       <c r="K18">
-        <v>1.07486340688932</v>
+        <v>1.061807947593949</v>
       </c>
       <c r="L18">
-        <v>1.056287731141259</v>
+        <v>1.019259530728871</v>
       </c>
       <c r="M18">
-        <v>1.081324372261266</v>
+        <v>1.058700437136189</v>
       </c>
       <c r="N18">
-        <v>1.064583705140838</v>
+        <v>1.030388757425164</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.057225157380613</v>
+        <v>1.002635311819404</v>
       </c>
       <c r="D19">
-        <v>1.071737444106474</v>
+        <v>1.049252583323479</v>
       </c>
       <c r="E19">
-        <v>1.053124751801058</v>
+        <v>1.006142308627249</v>
       </c>
       <c r="F19">
-        <v>1.078234017868217</v>
+        <v>1.046168789329426</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058370601594096</v>
+        <v>1.059405908988186</v>
       </c>
       <c r="J19">
-        <v>1.063164315320104</v>
+        <v>1.02946508124902</v>
       </c>
       <c r="K19">
-        <v>1.074929203447747</v>
+        <v>1.062211779720705</v>
       </c>
       <c r="L19">
-        <v>1.056376804555131</v>
+        <v>1.01979187433182</v>
       </c>
       <c r="M19">
-        <v>1.081405268305769</v>
+        <v>1.059174959333228</v>
       </c>
       <c r="N19">
-        <v>1.06467413059451</v>
+        <v>1.03092703974569</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.056700379894679</v>
+        <v>0.9994959541429844</v>
       </c>
       <c r="D20">
-        <v>1.071380387614987</v>
+        <v>1.047133316637672</v>
       </c>
       <c r="E20">
-        <v>1.052661865093865</v>
+        <v>1.003413084455159</v>
       </c>
       <c r="F20">
-        <v>1.077809661162908</v>
+        <v>1.043725343689096</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058183512198905</v>
+        <v>1.058075735509635</v>
       </c>
       <c r="J20">
-        <v>1.062760279384986</v>
+        <v>1.027046319749348</v>
       </c>
       <c r="K20">
-        <v>1.074634804581861</v>
+        <v>1.060395096250456</v>
       </c>
       <c r="L20">
-        <v>1.055978210299728</v>
+        <v>1.017396183213299</v>
       </c>
       <c r="M20">
-        <v>1.081043351069023</v>
+        <v>1.05704057009095</v>
       </c>
       <c r="N20">
-        <v>1.064269520882021</v>
+        <v>1.028504843327251</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054991136919473</v>
+        <v>0.9889399507682778</v>
       </c>
       <c r="D21">
-        <v>1.07021790690756</v>
+        <v>1.040031301571416</v>
       </c>
       <c r="E21">
-        <v>1.051153503990455</v>
+        <v>0.9942397423233315</v>
       </c>
       <c r="F21">
-        <v>1.076428494430228</v>
+        <v>1.035537449252499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057572280246426</v>
+        <v>1.053592537078363</v>
       </c>
       <c r="J21">
-        <v>1.061443076570806</v>
+        <v>1.018907478341995</v>
       </c>
       <c r="K21">
-        <v>1.073675187179316</v>
+        <v>1.05429198564235</v>
       </c>
       <c r="L21">
-        <v>1.054678144853294</v>
+        <v>1.009331072536857</v>
       </c>
       <c r="M21">
-        <v>1.079864397675981</v>
+        <v>1.049875444742502</v>
       </c>
       <c r="N21">
-        <v>1.062950447488759</v>
+        <v>1.020354443831562</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053914005975993</v>
+        <v>0.9820094340043426</v>
       </c>
       <c r="D22">
-        <v>1.069485715560506</v>
+        <v>1.03538913660892</v>
       </c>
       <c r="E22">
-        <v>1.050202428621087</v>
+        <v>0.9882206396518266</v>
       </c>
       <c r="F22">
-        <v>1.075558887169891</v>
+        <v>1.030185571887725</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057185666039645</v>
+        <v>1.05064178647946</v>
       </c>
       <c r="J22">
-        <v>1.06061206396934</v>
+        <v>1.013560075338955</v>
       </c>
       <c r="K22">
-        <v>1.073069898628159</v>
+        <v>1.050290682227467</v>
       </c>
       <c r="L22">
-        <v>1.053857480699328</v>
+        <v>1.004029116198052</v>
       </c>
       <c r="M22">
-        <v>1.079121331090725</v>
+        <v>1.045181861674526</v>
       </c>
       <c r="N22">
-        <v>1.062118254754081</v>
+        <v>1.014999446902902</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054485250397692</v>
+        <v>0.9857130345351435</v>
       </c>
       <c r="D23">
-        <v>1.069873988264085</v>
+        <v>1.037867791483647</v>
       </c>
       <c r="E23">
-        <v>1.0507068715459</v>
+        <v>0.991436791764069</v>
       </c>
       <c r="F23">
-        <v>1.076019999412129</v>
+        <v>1.033043189299092</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057390837620217</v>
+        <v>1.052219266183519</v>
       </c>
       <c r="J23">
-        <v>1.061052870955914</v>
+        <v>1.016417992957989</v>
       </c>
       <c r="K23">
-        <v>1.073390958902527</v>
+        <v>1.052428308712223</v>
       </c>
       <c r="L23">
-        <v>1.054292842321882</v>
+        <v>1.00686302320128</v>
       </c>
       <c r="M23">
-        <v>1.079515418388637</v>
+        <v>1.047688960461569</v>
       </c>
       <c r="N23">
-        <v>1.062559687737137</v>
+        <v>1.017861423092762</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056728994635082</v>
+        <v>0.9996683235937429</v>
       </c>
       <c r="D24">
-        <v>1.071399855186018</v>
+        <v>1.047249593474175</v>
       </c>
       <c r="E24">
-        <v>1.052687107738839</v>
+        <v>1.003562923788063</v>
       </c>
       <c r="F24">
-        <v>1.077832796492993</v>
+        <v>1.043859404511771</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058193720732697</v>
+        <v>1.058148810692001</v>
       </c>
       <c r="J24">
-        <v>1.062782315023536</v>
+        <v>1.027179147108749</v>
       </c>
       <c r="K24">
-        <v>1.074650860173859</v>
+        <v>1.0604948263277</v>
       </c>
       <c r="L24">
-        <v>1.055999951424086</v>
+        <v>1.017527758066014</v>
       </c>
       <c r="M24">
-        <v>1.081063086089946</v>
+        <v>1.05715772132485</v>
       </c>
       <c r="N24">
-        <v>1.064291587813705</v>
+        <v>1.028637859316739</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.059322368977686</v>
+        <v>1.014742329665788</v>
       </c>
       <c r="D25">
-        <v>1.073165065396333</v>
+        <v>1.057455123576715</v>
       </c>
       <c r="E25">
-        <v>1.054973576090396</v>
+        <v>1.016670992019012</v>
       </c>
       <c r="F25">
-        <v>1.079931365366812</v>
+        <v>1.055627448193281</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059115496179913</v>
+        <v>1.064519131559038</v>
       </c>
       <c r="J25">
-        <v>1.064777170316077</v>
+        <v>1.038783541336483</v>
       </c>
       <c r="K25">
-        <v>1.076104618395374</v>
+        <v>1.069222500569727</v>
       </c>
       <c r="L25">
-        <v>1.057967042849954</v>
+        <v>1.029015909365388</v>
       </c>
       <c r="M25">
-        <v>1.082851368933092</v>
+        <v>1.067419505017432</v>
       </c>
       <c r="N25">
-        <v>1.066289276029575</v>
+        <v>1.040258733115319</v>
       </c>
     </row>
   </sheetData>
